--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -14,9 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="1">
-  <si>
-    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-trastero-zona-comunitaria-ascensor-parking-internet-piscina/160725158/d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-terraza-trastero-zona-comunitaria-ascensor-parking-piscina-no-amueblado/161037461/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-jardin-terraza-trastero-zona-comunitaria-ascensor-piscina-piscina-no-amueblado/160608400/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-terraza-trastero-ascensor-parking-piscina-no-amueblado/161122508/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-terraza-trastero-ascensor-parking-piscina-no-amueblado/161122506/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/calefaccion-parking-trastero-ascensor-piscina/161122423/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-jardin-terraza-trastero-zona-comunitaria-ascensor-piscina-parking-internet-piscina/161078285/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-terraza-zona-comunitaria-ascensor-amueblado-parking-piscina/160952260/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado/161059805/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/calefaccion-parking-trastero-ascensor-piscina-amueblado/161059137/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-trastero-ascensor-piscina-no-amueblado/160748955/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-jardin-terraza-trastero-ascensor-piscina-se-aceptan-mascotas-no-amueblado/160946107/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-terraza-trastero-ascensor-piscina-no-amueblado/161010594/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-jardin-terraza-trastero-piscina/161035432/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-jardin-trastero-ascensor-internet-no-amueblado/160863411/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado/161015223/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-zona-comunitaria-ascensor-parking-piscina/161004513/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-trastero-ascensor-parking-se-aceptan-mascotas-piscina-no-amueblado/160979607/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/calefaccion-parking-ascensor/160973099/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-terraza-trastero-ascensor-piscina/160351416/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-terraza-ascensor-piscina/160896404/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-parking-trastero-ascensor-piscina-no-amueblado/160826803/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-jardin-terraza-trastero-zona-comunitaria-ascensor-piscina-parking-internet-piscina/160823875/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/calefaccion-parking-terraza-trastero-ascensor/160590142/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-jardin-terraza-trastero-piscina-no-amueblado/158687868/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-terraza-trastero-ascensor-parking-piscina-no-amueblado/160536484/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/calefaccion-trastero-ascensor-parking-piscina-no-amueblado/160834286/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-terraza-trastero-ascensor-piscina-parking-piscina-no-amueblado/160825518/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-terraza-trastero-ascensor-piscina-piscina/159845398/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-jardin-terraza-trastero-ascensor-piscina-piscina/160494708/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-terraza-zona-comunitaria-ascensor-amueblado-parking-television-internet-piscina/160729879/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-trastero-zona-comunitaria-ascensor-parking-piscina/160722456/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-jardin-terraza-ascensor-piscina-amueblado-piscina/160735600/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-terraza-trastero-ascensor-piscina-piscina/158189499/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-jardin-terraza-trastero-ascensor-piscina-piscina/159612128/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-jardin-terraza-trastero-ascensor-piscina-piscina/157597293/d</t>
+  </si>
+  <si>
+    <t>https://www.fotocasa.es/es/alquiler/vivienda/madrid-capital/aire-acondicionado-calefaccion-parking-terraza-trastero-zona-comunitaria-ascensor-piscina-parking-television-se-aceptan-mascotas-piscina-no-amueblado/158111203/d</t>
   </si>
 </sst>
 </file>
@@ -361,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -369,7 +474,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -377,234 +482,282 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -639,6 +792,12 @@
     <hyperlink ref="B28" r:id="rId28"/>
     <hyperlink ref="B29" r:id="rId29"/>
     <hyperlink ref="B30" r:id="rId30"/>
+    <hyperlink ref="B31" r:id="rId31"/>
+    <hyperlink ref="B32" r:id="rId32"/>
+    <hyperlink ref="B33" r:id="rId33"/>
+    <hyperlink ref="B34" r:id="rId34"/>
+    <hyperlink ref="B35" r:id="rId35"/>
+    <hyperlink ref="B36" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
